--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_7_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_7_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.117328865684613e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>6.117328865684613e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.74278806631391</v>
+        <v>46.38348001914834</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[32.49608008988658, 48.98949604274123]</t>
+          <t>[39.26925303220695, 53.49770700608974]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6.070699498650356e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.070699498650356e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 1.6792897667837323]</t>
+          <t>[1.4025528763774249, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.51079116124863</v>
+        <v>52.45464549613308</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.464110848362445, 52.55747147413482]</t>
+          <t>[47.62953320298932, 57.27975778927683]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.9193393393395</v>
+        <v>17.56006006006022</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.12396396396412</v>
+        <v>16.95131131131147</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.71471471471489</v>
+        <v>18.16880880880898</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -681,11 +681,11 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.935775444295</v>
+        <v>47.90701534291468</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[39.487082732853544, 54.384468155736464]</t>
+          <t>[40.205890999495445, 55.60813968633392]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -695,11 +695,11 @@
         <v>2.220446049250313e-16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.628973968528041</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.7925003128590422]</t>
+          <t>[1.57865817027235, 1.9057108589343486]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.15161681821748</v>
+        <v>51.90964032064369</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.2863344086707, 56.016899227764256]</t>
+          <t>[47.3623762772629, 56.45690436402448]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.31111111111127</v>
+        <v>16.90448448448464</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.70288288288303</v>
+        <v>16.29573573573589</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.91933933933951</v>
+        <v>17.51323323323339</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.34257058195908e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.34257058195908e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>51.04597533727902</v>
+        <v>44.94808865641084</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[42.263555195070836, 59.82839547948721]</t>
+          <t>[35.26877071005694, 54.62740660276474]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>4.050315638437496e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>4.050315638437496e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.893131909370426</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 2.0692372032653497]</t>
+          <t>[1.7044476659115801, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.34659030480716</v>
+        <v>48.57954463104737</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.36435545941708, 55.32882515019724]</t>
+          <t>[43.15241774148143, 54.00667152061331]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.32858858858874</v>
+        <v>16.1552552552554</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.67357357357372</v>
+        <v>15.26554554554569</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.98360360360376</v>
+        <v>17.04496496496512</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.042011087472929e-14</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.042011087472929e-14</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.57742592876581</v>
+        <v>51.08339115493082</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.78224109117689, 59.37261076635472]</t>
+          <t>[40.82211028746217, 61.34467202239946]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.031641438942188e-11</v>
+        <v>4.782840790085174e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.031641438942188e-11</v>
+        <v>4.782840790085174e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.006342455445734</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.7673424137311953, 2.245342497160272]</t>
+          <t>[1.7421845146033492, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.91267205319524</v>
+        <v>57.12553400892147</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.00017714520877, 56.82516696118171]</t>
+          <t>[51.31765157783443, 62.93341644000851]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.90750750750765</v>
+        <v>16.10842842842858</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.0185585585587</v>
+        <v>15.31237237237251</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.79645645645661</v>
+        <v>16.90448448448464</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.97030212245259</v>
+        <v>46.23888657408863</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.3120534358081, 51.62855080909707]</t>
+          <t>[36.905580444276026, 55.57219270390124]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.269118474870993e-13</v>
+        <v>5.568878691519785e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>5.269118474870993e-13</v>
+        <v>5.568878691519785e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220184598032427</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.0063424554457345, 2.434026740619119]</t>
+          <t>[1.9182898084982725, 2.345974093671657]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>46.40534471319577</v>
+        <v>52.35168701951072</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.84973554481873, 50.960953881572806]</t>
+          <t>[47.526444122473116, 57.176929916548325]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.11213213213227</v>
+        <v>15.452852852853</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.31675675675689</v>
+        <v>14.65679679679693</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.90750750750765</v>
+        <v>16.24890890890906</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.196154700432999e-13</v>
+        <v>9.803269307440132e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>6.196154700432999e-13</v>
+        <v>9.803269307440132e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.40689909304559</v>
+        <v>47.13045535511614</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.1617894422917, 53.65200874379948]</t>
+          <t>[35.36822671892848, 58.8926839913038]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.34579769550669e-09</v>
+        <v>2.72349254260007e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34579769550669e-09</v>
+        <v>2.72349254260007e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>2.383710942363427</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.1321319510849643, 2.635289933641889]</t>
+          <t>[2.169868799776734, 2.6478688832058124]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.53434081345814</v>
+        <v>55.98291286080655</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.82299749004905, 58.24568413686724]</t>
+          <t>[49.98068120176986, 61.98514451984324]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.50390390390404</v>
+        <v>14.4226626626628</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.56816816816829</v>
+        <v>13.53295295295308</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.43963963963978</v>
+        <v>15.31237237237252</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1111,25 +1111,25 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.82321250920369</v>
+        <v>52.82657794433986</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.92915946404203, 52.717265554365355]</t>
+          <t>[43.19964214872431, 62.45351373995541]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.601386104421181e-13</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>6.601386104421181e-13</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.446605690183042</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.245342497160272, 2.6478688832058124]</t>
+          <t>[2.434026740619119, 2.8113952275368117]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.22952443239902</v>
+        <v>55.07379498738141</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[51.61207943889235, 60.846969425905684]</t>
+          <t>[49.827019190136554, 60.32057078462627]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.2699699699701</v>
+        <v>13.62660660660673</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5213813813815</v>
+        <v>12.92420420420433</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.0185585585587</v>
+        <v>14.32900900900914</v>
       </c>
     </row>
     <row r="9">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1197,25 +1197,25 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>46.14110075856597</v>
+        <v>52.31584976875241</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.84405115828973, 54.43815035884221]</t>
+          <t>[43.72385579079353, 60.907843746711286]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.332267629550188e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>1.332267629550188e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.685605731897581</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.4969214884387347, 2.8742899753564264]</t>
+          <t>[2.5472372866944273, 2.899447874484273]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>51.69770537299769</v>
+        <v>52.55664286821998</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.090629917874836, 56.30478082812054]</t>
+          <t>[47.7965578368601, 57.31672789957986]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.38102102102114</v>
+        <v>13.25199199199212</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.67921921921934</v>
+        <v>12.59641641641654</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.08282282282295</v>
+        <v>13.90756756756769</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.37000000000021</v>
+        <v>23.39000000000022</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.5929048423062</v>
+        <v>44.27974068040779</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[38.59386290141692, 56.59194678319549]</t>
+          <t>[35.74977865224847, 52.80970270856711]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.927791673660977e-14</v>
+        <v>1.265654248072678e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>6.927791673660977e-14</v>
+        <v>1.265654248072678e-13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.836553126664658</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.6352899336418885, 3.037816319687428]</t>
+          <t>[2.584974135386196, 3.0126584205595823]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>51.71946515874988</v>
+        <v>50.67115088230894</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.582282513787135, 56.85664780371262]</t>
+          <t>[45.720388597936726, 55.62191316668116]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.8195795795797</v>
+        <v>12.97103103103115</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.0709909909911</v>
+        <v>12.17497497497508</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.56816816816829</v>
+        <v>13.76708708708721</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.298960938811433e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.298960938811433e-14</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>53.93986795186377</v>
+        <v>44.59648054436644</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[45.89482334074101, 61.98491256298652]</t>
+          <t>[34.882067953038636, 54.31089313569425]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>5.70898883722748e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>5.70898883722748e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>2.849132076228581</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.685605731897581, 3.0126584205595814]</t>
+          <t>[2.5598162362583503, 3.037816319687427]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.44492929161358</v>
+        <v>53.06271220904912</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.7603839847489, 58.12947459847827]</t>
+          <t>[47.60864414123547, 58.51678027686276]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12.46126126126133</v>
+        <v>12.62166166166173</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.86786786786793</v>
+        <v>11.75591591591598</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.05465465465473</v>
+        <v>13.48740740740748</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I12" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>52.17206370308062</v>
+        <v>46.34276710222146</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[42.44356135690511, 61.90056604925613]</t>
+          <t>[39.101570748193765, 53.58396345624915]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.39648317751562e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O12" t="n">
-        <v>4.39648317751562e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P12" t="n">
-        <v>-3.094421592725082</v>
+        <v>3.113290017070966</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.308263735311774, -2.8805794501383892]</t>
+          <t>[2.937184723176043, 3.2893953109658884]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>53.19491585428826</v>
+        <v>51.50278158317607</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.68388157719084, 59.705950131385684]</t>
+          <t>[46.65904582892234, 56.34651733742981]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.22882882882889</v>
+        <v>11.48252252252258</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.45285285285291</v>
+        <v>10.84460460460467</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.00480480480487</v>
+        <v>12.1204404404405</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1541,25 +1541,25 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>47.29368290718221</v>
+        <v>44.07899127722419</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[38.7583017602343, 55.829064054130114]</t>
+          <t>[36.68913724022979, 51.46884531421859]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.817684702318773</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.0189478953415416, -2.616421509296005]</t>
+          <t>[-3.1698952901086197, -2.767368904063081]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.06364222338593</v>
+        <v>50.70098127548008</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.112883271235276, 56.01440117553659]</t>
+          <t>[45.98283850024819, 55.41912405071197]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>10.22462462462468</v>
+        <v>10.75347347347353</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.494294294294349</v>
+        <v>10.02442442442448</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.95495495495501</v>
+        <v>11.48252252252258</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.770761894538737e-15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.770761894538737e-15</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>45.87152651672691</v>
+        <v>44.88501521690331</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[36.32933449461371, 55.41371853884011]</t>
+          <t>[35.00154537638025, 54.768485057426375]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.415756401002e-12</v>
+        <v>7.868816709333259e-12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.415756401002e-12</v>
+        <v>7.868816709333259e-12</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.5661057110403114, -2.1384214258669267]</t>
+          <t>[-2.7673689040630807, -2.289368820634004]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.14056581528641</v>
+        <v>52.06848580710144</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.30623975638979, 57.97489187418302]</t>
+          <t>[46.73378666490375, 57.40318494929913]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.535735735735782</v>
+        <v>9.158678678678728</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.759759759759803</v>
+        <v>8.292932932932979</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.311711711711762</v>
+        <v>10.02442442442448</v>
       </c>
     </row>
     <row r="15">
@@ -1699,39 +1699,39 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>46.0048767624902</v>
+        <v>46.74252133817483</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[36.672691270725316, 55.33706225425508]</t>
+          <t>[36.40787845564242, 57.077164220707246]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.499245586155666e-13</v>
+        <v>8.879119661742152e-12</v>
       </c>
       <c r="O15" t="n">
-        <v>6.499245586155666e-13</v>
+        <v>8.879119661742152e-12</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.088105627611234</v>
+        <v>-2.276789871070081</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.2893688206340035, -1.886842434588464]</t>
+          <t>[-2.4906320136567732, -2.0629477284833886]</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1741,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>54.17953707162476</v>
+        <v>46.98051831018194</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.30208753475481, 59.05698660849472]</t>
+          <t>[41.79503925514451, 52.16599736521936]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>7.577177177177218</v>
+        <v>8.247367367367413</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.846846846846883</v>
+        <v>7.472752752752796</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.307507507507554</v>
+        <v>9.02198198198203</v>
       </c>
     </row>
     <row r="16">
@@ -1785,39 +1785,39 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I16" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.82077646278463</v>
+        <v>46.77944472950598</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[36.66212091774203, 52.97943200782723]</t>
+          <t>[39.054328139035974, 54.50456131997599]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.976196983832779e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O16" t="n">
-        <v>1.976196983832779e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.735895039821387</v>
+        <v>-1.685579241565695</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.9245792832802335, -1.547210796362541]</t>
+          <t>[-1.8616845354606184, -1.509473947670772]</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1827,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>53.22318932468951</v>
+        <v>51.32818075677798</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[48.32283231322516, 58.123546336153865]</t>
+          <t>[46.50476398181276, 56.15159753174319]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.299099099099134</v>
+        <v>6.10578578578582</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.614414414414447</v>
+        <v>5.467867867867898</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.983783783783822</v>
+        <v>6.743703703703741</v>
       </c>
     </row>
     <row r="17">
@@ -1871,39 +1871,39 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.343991750170971e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.343991750170971e-13</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>50.41682142032217</v>
+        <v>48.45759864047157</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[43.48420034183387, 57.34944249881046]</t>
+          <t>[38.546212404337226, 58.36898487660592]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>8.406608742461685e-13</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>8.406608742461685e-13</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.496894998106848</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.6352634433100022, -1.3585265529036938]</t>
+          <t>[-1.7358950398213882, -1.2830528555201557]</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -1913,11 +1913,11 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.8099780179304</v>
+        <v>53.57317242198767</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[48.35894473015076, 57.26101130571005]</t>
+          <t>[47.31644731157506, 59.82989753240028]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.431831831831861</v>
+        <v>5.467867867867898</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.929729729729756</v>
+        <v>4.647687687687712</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.933933933933966</v>
+        <v>6.288048048048084</v>
       </c>
     </row>
     <row r="18">
@@ -1957,53 +1957,53 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.80000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I18" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>48.08869373227421</v>
+        <v>46.29034458067453</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[37.98304941013852, 58.1943380544099]</t>
+          <t>[36.99701515373195, 55.583674007617105]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1.932898285872398e-12</v>
+        <v>4.700684286262913e-13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.932898285872398e-12</v>
+        <v>4.700684286262913e-13</v>
       </c>
       <c r="P18" t="n">
         <v>-1.119526511189155</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, -0.9056843686024632]</t>
+          <t>[-1.3207897042119248, -0.9182633181663862]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>9.614531393253856e-14</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="S18" t="n">
-        <v>9.614531393253856e-14</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="T18" t="n">
-        <v>53.36832096276051</v>
+        <v>51.48649054085553</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[48.043315371786164, 58.69332655373485]</t>
+          <t>[46.57927100933715, 56.393710072373906]</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.062462462462484</v>
+        <v>4.055335335335357</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.286486486486505</v>
+        <v>3.326286286286305</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.838438438438463</v>
+        <v>4.784384384384409</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_7_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_7_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.38348001914834</v>
+        <v>43.67891550932878</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.26925303220695, 53.49770700608974]</t>
+          <t>[36.114179530244776, 51.24365148841279]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 1.7296055650394253]</t>
+          <t>[1.3773949772495797, 1.7547634641672722]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.45464549613308</v>
+        <v>53.44501935452696</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.62953320298932, 57.27975778927683]</t>
+          <t>[48.369499954043945, 58.52053875500998]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.56006006006022</v>
+        <v>17.59009009009026</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.95131131131147</v>
+        <v>16.88648648648665</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.16880880880898</v>
+        <v>18.29369369369387</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.429789868254375e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.429789868254375e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.90701534291468</v>
+        <v>44.42439895154507</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[40.205890999495445, 55.60813968633392]</t>
+          <t>[35.834910148779656, 53.013887754310474]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.423305917569451e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.423305917569451e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.742184514603349</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.57865817027235, 1.9057108589343486]</t>
+          <t>[1.503184472888809, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>51.90964032064369</v>
+        <v>56.11567029499118</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.3623762772629, 56.45690436402448]</t>
+          <t>[50.66397970451317, 61.567360885469185]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>16.90448448448464</v>
+        <v>16.98030030030046</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.29573573573589</v>
+        <v>16.13597597597613</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.51323323323339</v>
+        <v>17.8246246246248</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.34257058195908e-14</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34257058195908e-14</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.94808865641084</v>
+        <v>44.98363624416869</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[35.26877071005694, 54.62740660276474]</t>
+          <t>[35.028966274324475, 54.9383062140129]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.050315638437496e-12</v>
+        <v>9.116707389011935e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>4.050315638437496e-12</v>
+        <v>9.116707389011935e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.943447707626119</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7044476659115801, 2.182447749340657]</t>
+          <t>[1.7547634641672731, 2.207605648468504]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48.57954463104737</v>
+        <v>48.96073243388953</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.15241774148143, 54.00667152061331]</t>
+          <t>[43.578044081235056, 54.343420786543994]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.1552552552554</v>
+        <v>16.04216216216231</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.26554554554569</v>
+        <v>15.19783783783798</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.04496496496512</v>
+        <v>16.88648648648664</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.997602166487923e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>2.997602166487923e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.08339115493082</v>
+        <v>49.04168216096622</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.82211028746217, 61.34467202239946]</t>
+          <t>[40.204896169535274, 57.87846815239716]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.782840790085174e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>4.782840790085174e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.956026657190042</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.7421845146033492, 2.169868799776734]</t>
+          <t>[1.9182898084982725, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>57.12553400892147</v>
+        <v>53.67309255469304</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.31765157783443, 62.93341644000851]</t>
+          <t>[49.03127306727017, 58.314912042115914]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.10842842842858</v>
+        <v>15.57309309309324</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.31237237237251</v>
+        <v>14.86948948948963</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.90448448448464</v>
+        <v>16.27669669669685</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -939,25 +939,25 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.23888657408863</v>
+        <v>46.48128728432981</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.905580444276026, 55.57219270390124]</t>
+          <t>[38.822259832895476, 54.14031473576414]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.568878691519785e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>5.568878691519785e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.132131951084965</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 2.345974093671657]</t>
+          <t>[1.9811845563178876, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>52.35168701951072</v>
+        <v>52.41555056171966</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.526444122473116, 57.176929916548325]</t>
+          <t>[48.428604082332164, 56.40249704110716]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>15.452852852853</v>
+        <v>15.43237237237252</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.65679679679693</v>
+        <v>14.82258258258272</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.24890890890906</v>
+        <v>16.04216216216231</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.803269307440132e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>9.803269307440132e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.13045535511614</v>
+        <v>51.02803888741017</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[35.36822671892848, 58.8926839913038]</t>
+          <t>[40.539839809972605, 61.51623796484773]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.72349254260007e-10</v>
+        <v>9.778844400898379e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>2.72349254260007e-10</v>
+        <v>9.778844400898379e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.408868841491273</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.169868799776734, 2.6478688832058124]</t>
+          <t>[2.1069740519571187, 2.5346583371305034]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.98291286080655</v>
+        <v>49.66325433758666</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.98068120176986, 61.98514451984324]</t>
+          <t>[44.27840349845499, 55.04810517671832]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.4226626626628</v>
+        <v>14.77567567567582</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.53295295295308</v>
+        <v>13.97825825825839</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.31237237237252</v>
+        <v>15.57309309309324</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.758904216193514e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.758904216193514e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.82657794433986</v>
+        <v>41.79284988547282</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[43.19964214872431, 62.45351373995541]</t>
+          <t>[30.360295431289664, 53.225404339655974]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.065014825802791e-14</v>
+        <v>2.961779044241553e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>2.065014825802791e-14</v>
+        <v>2.961779044241553e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>2.622710984077965</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.434026740619119, 2.8113952275368117]</t>
+          <t>[2.232763547596349, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.07379498738141</v>
+        <v>50.92851327524545</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.827019190136554, 60.32057078462627]</t>
+          <t>[45.012703104273555, 56.844323446217345]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.62660660660673</v>
+        <v>14.07207207207221</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.92420420420433</v>
+        <v>13.04012012012024</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.32900900900914</v>
+        <v>15.10402402402417</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>52.31584976875241</v>
+        <v>45.83676848144399</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.72385579079353, 60.907843746711286]</t>
+          <t>[36.54922715933953, 55.12430980354845]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.272760089132134e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.272760089132134e-13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72334258058935</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.5472372866944273, 2.899447874484273]</t>
+          <t>[2.446605690183042, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.55664286821998</v>
+        <v>50.26227118631627</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.7965578368601, 57.31672789957986]</t>
+          <t>[45.246725709328736, 55.2778166633038]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.25199199199212</v>
+        <v>13.50918918918932</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.59641641641654</v>
+        <v>12.71177177177189</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.90756756756769</v>
+        <v>14.30660660660674</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.39000000000022</v>
+        <v>23.43000000000022</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>44.27974068040779</v>
+        <v>54.80756918016201</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[35.74977865224847, 52.80970270856711]</t>
+          <t>[46.75969132685918, 62.85544703346484]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.265654248072678e-13</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.265654248072678e-13</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.798816277972889</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.584974135386196, 3.0126584205595823]</t>
+          <t>[2.685605731897581, 2.9875005214317354]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,11 +1311,11 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.67115088230894</v>
+        <v>53.45476191366738</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.720388597936726, 55.62191316668116]</t>
+          <t>[48.92416044016293, 57.98536338717182]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.97103103103115</v>
+        <v>12.85249249249261</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.17497497497508</v>
+        <v>12.28960960960972</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.76708708708721</v>
+        <v>13.4153753753755</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.298960938811433e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.298960938811433e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.59648054436644</v>
+        <v>49.5962368524935</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[34.882067953038636, 54.31089313569425]</t>
+          <t>[41.12113557141821, 58.07133813356879]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.70898883722748e-12</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>5.70898883722748e-12</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.798816277972889</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.5598162362583503, 3.037816319687427]</t>
+          <t>[2.5598162362583503, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.06271220904912</v>
+        <v>53.63771524176105</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.60864414123547, 58.51678027686276]</t>
+          <t>[48.81479138551756, 58.46063909800454]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12.62166166166173</v>
+        <v>12.83205205205212</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.75591591591598</v>
+        <v>12.14706706706714</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.48740740740748</v>
+        <v>13.51703703703711</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.720845688168993e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.720845688168993e-14</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.34276710222146</v>
+        <v>47.78719837740806</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[39.101570748193765, 53.58396345624915]</t>
+          <t>[38.7646057478844, 56.80979100693172]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.616929226765933e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.616929226765933e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>3.113290017070966</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[2.937184723176043, 3.2893953109658884]</t>
+          <t>[-3.2831058361839274, -2.8554215510105427]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>51.50278158317607</v>
+        <v>50.2461553070331</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.65904582892234, 56.34651733742981]</t>
+          <t>[44.34444635025009, 56.14786426381611]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.48252252252258</v>
+        <v>11.14242242242248</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.84460460460467</v>
+        <v>10.36610610610616</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.1204404404405</v>
+        <v>11.9187387387388</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1541,25 +1541,25 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>44.07899127722419</v>
+        <v>46.34120413430756</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.68913724022979, 51.46884531421859]</t>
+          <t>[37.77410944479081, 54.90829882382431]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.33066907387547e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>3.33066907387547e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.96863209708585</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.1698952901086197, -2.767368904063081]</t>
+          <t>[-2.905737349266236, -2.528368862348542]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50.70098127548008</v>
+        <v>55.30273070885374</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.98283850024819, 55.41912405071197]</t>
+          <t>[50.485203153462535, 60.12025826424494]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>10.75347347347353</v>
+        <v>9.863783783783839</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.02442442442448</v>
+        <v>9.178798798798848</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.48252252252258</v>
+        <v>10.54876876876883</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>8.770761894538737e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="I14" t="n">
-        <v>8.770761894538737e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>44.88501521690331</v>
+        <v>46.34725287692773</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[35.00154537638025, 54.768485057426375]</t>
+          <t>[36.2123895520491, 56.48211620180635]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.868816709333259e-12</v>
+        <v>6.404876629062528e-12</v>
       </c>
       <c r="O14" t="n">
-        <v>7.868816709333259e-12</v>
+        <v>6.404876629062528e-12</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.503210963220696</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.7673689040630807, -2.289368820634004]</t>
+          <t>[-2.7296320553713103, -2.2767898710700814]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>52.06848580710144</v>
+        <v>50.67073191103702</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.73378666490375, 57.40318494929913]</t>
+          <t>[45.30763407010763, 56.0338297519664]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.158678678678728</v>
+        <v>9.087467467467517</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.292932932932979</v>
+        <v>8.265485485485534</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.02442442442448</v>
+        <v>9.9094494494495</v>
       </c>
     </row>
     <row r="15">
@@ -1699,39 +1699,39 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="I15" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>46.74252133817483</v>
+        <v>52.75733426326898</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[36.40787845564242, 57.077164220707246]</t>
+          <t>[42.216132776228235, 63.298535750309725]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>8.879119661742152e-12</v>
+        <v>4.04565270173407e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>8.879119661742152e-12</v>
+        <v>4.04565270173407e-13</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.276789871070081</v>
+        <v>-2.025210879791619</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.4906320136567732, -2.0629477284833886]</t>
+          <t>[-2.239053022378311, -1.8113687372049263]</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1741,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>46.98051831018194</v>
+        <v>51.2576382961287</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[41.79503925514451, 52.16599736521936]</t>
+          <t>[45.52145441712663, 56.99382217513078]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.247367367367413</v>
+        <v>7.352172172172214</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.472752752752796</v>
+        <v>6.575855855855894</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.02198198198203</v>
+        <v>8.128488488488534</v>
       </c>
     </row>
     <row r="16">
@@ -1785,39 +1785,39 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>9.436895709313831e-15</v>
       </c>
       <c r="I16" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>9.436895709313831e-15</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>46.77944472950598</v>
+        <v>43.6900188786552</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[39.054328139035974, 54.50456131997599]</t>
+          <t>[35.454302750386645, 51.92573500692376]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.283862319378386e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.283862319378386e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.685579241565695</v>
+        <v>-1.723316090257464</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.8616845354606184, -1.509473947670772]</t>
+          <t>[-1.9371582328441566, -1.509473947670772]</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -1827,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>51.32818075677798</v>
+        <v>45.21829905165906</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[46.50476398181276, 56.15159753174319]</t>
+          <t>[40.15082108917615, 50.28577701414197]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.10578578578582</v>
+        <v>6.256196196196232</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.467867867867898</v>
+        <v>5.479879879879912</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.743703703703741</v>
+        <v>7.032512512512551</v>
       </c>
     </row>
     <row r="17">
@@ -1871,39 +1871,39 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.343991750170971e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I17" t="n">
-        <v>3.343991750170971e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>48.45759864047157</v>
+        <v>51.64646624258562</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[38.546212404337226, 58.36898487660592]</t>
+          <t>[47.203161195916614, 56.089771289254635]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>8.406608742461685e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.406608742461685e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.509473947670772</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.7358950398213882, -1.2830528555201557]</t>
+          <t>[-1.647842392873926, -1.471737098979002]</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -1913,11 +1913,11 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>53.57317242198767</v>
+        <v>51.52255576592546</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[47.31644731157506, 59.82989753240028]</t>
+          <t>[48.486562130610665, 54.558549401240256]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.467867867867898</v>
+        <v>5.662542542542575</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.647687687687712</v>
+        <v>5.342882882882912</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.288048048048084</v>
+        <v>5.982202202202237</v>
       </c>
     </row>
     <row r="18">
@@ -1957,53 +1957,53 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.76000000000012</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.031353360138382e-13</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>8.031353360138382e-13</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>46.29034458067453</v>
+        <v>38.38485057585992</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[36.99701515373195, 55.583674007617105]</t>
+          <t>[28.869371858634462, 47.90032929308538]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.700684286262913e-13</v>
+        <v>2.270759136280276e-10</v>
       </c>
       <c r="O18" t="n">
-        <v>4.700684286262913e-13</v>
+        <v>2.270759136280276e-10</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.119526511189155</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, -0.9182633181663862]</t>
+          <t>[-1.38368445203154, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>1.031064122969383e-11</v>
       </c>
       <c r="S18" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>1.031064122969383e-11</v>
       </c>
       <c r="T18" t="n">
-        <v>51.48649054085553</v>
+        <v>51.10562473494839</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[46.57927100933715, 56.393710072373906]</t>
+          <t>[45.95591488245395, 56.25533458744282]</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.055335335335357</v>
+        <v>4.109909909909934</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.326286286286305</v>
+        <v>3.196596596596618</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.784384384384409</v>
+        <v>5.02322322322325</v>
       </c>
     </row>
   </sheetData>
